--- a/PianoDiQualifica/Img/Excel/copertura_req.xlsx
+++ b/PianoDiQualifica/Img/Excel/copertura_req.xlsx
@@ -227,6 +227,18 @@
             </c:extLst>
           </c:dPt>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-796A-44B8-9B4A-B5430CDC7EFE}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
               <a:solidFill>
                 <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -307,10 +319,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -804,10 +816,10 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="2"/>
                       <c:pt idx="0">
-                        <c:v>5</c:v>
+                        <c:v>7</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>2</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -851,7 +863,7 @@
                     </a:ln>
                     <a:effectLst/>
                   </c:spPr>
-                  <c:extLst>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                       <c16:uniqueId val="{00000009-0567-47E6-8C6D-2281B871137E}"/>
                     </c:ext>
@@ -871,7 +883,7 @@
                     </a:ln>
                     <a:effectLst/>
                   </c:spPr>
-                  <c:extLst>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                       <c16:uniqueId val="{0000000B-0567-47E6-8C6D-2281B871137E}"/>
                     </c:ext>
@@ -3422,8 +3434,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="P52" sqref="P52"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3449,7 +3461,7 @@
         <v>3</v>
       </c>
       <c r="D3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E3">
         <v>21</v>
@@ -3463,7 +3475,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E4">
         <v>32</v>
